--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite GeneralTaxRateMonth4LDOD1BRNTOTK50percentRL201718.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite GeneralTaxRateMonth4LDOD1BRNTOTK50percentRL201718.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18326"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\XCDHR\git\XCDHR_Payroll\Salesforce_Core_Framework\src\main\java\com\test\xcdhr\Salesforce_Core_Framework1\salesforce_XLS_Files\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="384" yWindow="264" windowWidth="14340" windowHeight="4272" activeTab="3"/>
+    <workbookView xWindow="390" yWindow="270" windowWidth="14340" windowHeight="4275" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="first" sheetId="1" r:id="rId1"/>
@@ -17,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="43">
   <si>
     <t>TC</t>
   </si>
@@ -143,12 +148,15 @@
   </si>
   <si>
     <t>Monthly_Payroll</t>
+  </si>
+  <si>
+    <t>F:\\Automation_TestResults\\Payroll_Tax_NI_Directors_TestReports 201718\\201718 Payroll Net Income tax calculation Test result.xlsx</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -286,13 +294,16 @@
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -341,7 +352,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -374,9 +385,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -409,6 +437,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -584,22 +629,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="31" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="38.33203125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="33.5546875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="7.21875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="38.28515625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="33.5703125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -613,7 +658,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -627,7 +672,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -641,7 +686,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -662,23 +707,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37.5546875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="12.77734375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="20.109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="14.109375" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="14.6640625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="37.5703125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="20.140625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="14.140625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="14.7109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -704,7 +749,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>22</v>
       </c>
@@ -725,7 +770,7 @@
       </c>
       <c r="G2" s="6"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>23</v>
       </c>
@@ -752,25 +797,25 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2:C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.6640625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="24.7109375" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="35" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="14.5546875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="13.109375" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="15.109375" customWidth="1" collapsed="1"/>
-    <col min="6" max="7" width="24.6640625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="49.44140625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="14.5703125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="13.140625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="15.140625" customWidth="1" collapsed="1"/>
+    <col min="6" max="7" width="24.7109375" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="49.42578125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="14" customFormat="1" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" s="14" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>24</v>
       </c>
@@ -811,7 +856,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="14" customFormat="1" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" s="14" customFormat="1" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
         <v>40</v>
       </c>
@@ -848,7 +893,7 @@
       <c r="L2" s="12"/>
       <c r="M2" s="12"/>
     </row>
-    <row r="3" spans="1:13" s="14" customFormat="1" ht="61.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" s="14" customFormat="1" ht="61.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
         <v>40</v>
       </c>
@@ -887,8 +932,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF"/>
-    <hyperlink ref="A3" r:id="rId2" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="A3" r:id="rId2" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId3"/>
@@ -896,26 +941,26 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.33203125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="37.21875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="13.44140625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.21875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.77734375" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="32.44140625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="29.28515625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="37.28515625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="13.42578125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11.28515625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.7109375" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="32.42578125" customWidth="1" collapsed="1"/>
     <col min="7" max="7" width="30" customWidth="1" collapsed="1"/>
     <col min="8" max="8" width="36" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>24</v>
       </c>
@@ -956,7 +1001,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="12" customFormat="1" ht="68.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" s="12" customFormat="1" ht="68.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
         <v>40</v>
       </c>
@@ -979,7 +1024,7 @@
         <v>33</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="I2" s="11" t="s">
         <v>37</v>
@@ -993,7 +1038,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite GeneralTaxRateMonth4LDOD1BRNTOTK50percentRL201718.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite GeneralTaxRateMonth4LDOD1BRNTOTK50percentRL201718.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18326"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\XCDHR\git\XCDHR_Payroll\Salesforce_Core_Framework\src\main\java\com\test\xcdhr\Salesforce_Core_Framework1\salesforce_XLS_Files\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="390" yWindow="270" windowWidth="14340" windowHeight="4275" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="396" yWindow="276" windowWidth="14340" windowHeight="4272" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="first" sheetId="1" r:id="rId1"/>
@@ -22,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="42">
   <si>
     <t>TC</t>
   </si>
@@ -130,9 +125,6 @@
   </si>
   <si>
     <t>All</t>
-  </si>
-  <si>
-    <t>F:\\Automation NI Reports\\HMRCTestData\\Payroll Tax Test Report 201718\\201718 Payroll Net Income tax calculation Test result.xlsx</t>
   </si>
   <si>
     <t>3</t>
@@ -156,7 +148,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -294,7 +286,7 @@
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -352,7 +344,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -385,26 +377,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -437,23 +412,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -629,22 +587,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="31" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="38.28515625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="33.5703125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="38.33203125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="33.5546875" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="7.33203125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -672,7 +630,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -686,7 +644,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -707,20 +665,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="37.5703125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="12.7109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="20.140625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="14.140625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="14.7109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="37.5546875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="12.6640625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="20.109375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="14.109375" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="14.6640625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -797,25 +755,25 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C3"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.7109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="24.6640625" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="35" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="14.5703125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="13.140625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="15.140625" customWidth="1" collapsed="1"/>
-    <col min="6" max="7" width="24.7109375" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="49.42578125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="14.5546875" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="13.109375" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="15.109375" customWidth="1" collapsed="1"/>
+    <col min="6" max="7" width="24.6640625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="49.44140625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="14" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" s="14" customFormat="1" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>24</v>
       </c>
@@ -856,30 +814,30 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="14" customFormat="1" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" s="14" customFormat="1" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B2" s="16" t="s">
         <v>22</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D2" s="11" t="s">
         <v>17</v>
       </c>
       <c r="E2" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="F2" s="11" t="s">
         <v>38</v>
-      </c>
-      <c r="F2" s="11" t="s">
-        <v>39</v>
       </c>
       <c r="G2" s="11" t="s">
         <v>33</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="I2" s="11" t="s">
         <v>34</v>
@@ -893,30 +851,30 @@
       <c r="L2" s="12"/>
       <c r="M2" s="12"/>
     </row>
-    <row r="3" spans="1:13" s="14" customFormat="1" ht="61.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" s="14" customFormat="1" ht="61.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B3" s="15" t="s">
         <v>23</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D3" s="11" t="s">
         <v>17</v>
       </c>
       <c r="E3" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="F3" s="11" t="s">
         <v>38</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>39</v>
       </c>
       <c r="G3" s="11" t="s">
         <v>33</v>
       </c>
       <c r="H3" s="11" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="I3" s="11" t="s">
         <v>34</v>
@@ -932,8 +890,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
-    <hyperlink ref="A3" r:id="rId2" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF"/>
+    <hyperlink ref="A3" r:id="rId2" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId3"/>
@@ -941,26 +899,26 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.28515625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="37.28515625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="13.42578125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.28515625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.7109375" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="32.42578125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="29.33203125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="37.33203125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="13.44140625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11.33203125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.6640625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="32.44140625" customWidth="1" collapsed="1"/>
     <col min="7" max="7" width="30" customWidth="1" collapsed="1"/>
     <col min="8" max="8" width="36" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>24</v>
       </c>
@@ -1001,33 +959,33 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="12" customFormat="1" ht="68.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" s="12" customFormat="1" ht="68.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B2" s="16" t="s">
         <v>22</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D2" s="11" t="s">
         <v>17</v>
       </c>
       <c r="E2" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="F2" s="11" t="s">
         <v>38</v>
-      </c>
-      <c r="F2" s="11" t="s">
-        <v>39</v>
       </c>
       <c r="G2" s="11" t="s">
         <v>33</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I2" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J2" s="11" t="s">
         <v>35</v>
@@ -1038,7 +996,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite GeneralTaxRateMonth4LDOD1BRNTOTK50percentRL201718.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite GeneralTaxRateMonth4LDOD1BRNTOTK50percentRL201718.xlsx
@@ -4,20 +4,20 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="396" yWindow="276" windowWidth="14340" windowHeight="4272" activeTab="2"/>
+    <workbookView activeTab="2" windowHeight="4272" windowWidth="14340" xWindow="396" yWindow="276"/>
   </bookViews>
   <sheets>
-    <sheet name="first" sheetId="1" r:id="rId1"/>
-    <sheet name="GeneralTaxRateMonthly" sheetId="2" r:id="rId2"/>
-    <sheet name="ProcessPayrollForMonthlyTax" sheetId="4" r:id="rId3"/>
-    <sheet name="TestReports" sheetId="5" r:id="rId4"/>
+    <sheet name="first" r:id="rId1" sheetId="1"/>
+    <sheet name="GeneralTaxRateMonthly" r:id="rId2" sheetId="2"/>
+    <sheet name="ProcessPayrollForMonthlyTax" r:id="rId3" sheetId="4"/>
+    <sheet name="TestReports" r:id="rId4" sheetId="5"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="42">
   <si>
     <t>TC</t>
   </si>
@@ -149,6 +149,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -228,68 +229,68 @@
     </border>
   </borders>
   <cellStyleXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="19">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyProtection="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyBorder="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyProtection="1" borderId="1" fillId="3" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyProtection="1" borderId="1" fillId="4" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="3" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="4" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="4" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="2">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="2"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="8" name="Hyperlink" xfId="2"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -306,10 +307,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -467,7 +468,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -476,13 +477,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -492,7 +493,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -501,7 +502,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -510,7 +511,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -520,12 +521,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
+            <a:lightRig dir="t" rig="threePt">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
+            <a:bevelT h="25400" w="63500"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -556,7 +557,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -575,7 +576,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -587,7 +588,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -596,13 +597,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="31" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="38.33203125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="33.5546875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="7.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="31.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="38.33203125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="33.5546875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="7.44140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -616,7 +617,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -630,7 +631,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -644,7 +645,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -659,13 +660,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -674,11 +675,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="37.5546875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="12.6640625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="20.109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="14.109375" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="14.6640625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="37.5546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="12.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="20.109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="14.109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="14.6640625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -750,12 +751,12 @@
       <c r="G3" s="6"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
@@ -764,16 +765,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.6640625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="35" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="14.5546875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="13.109375" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="15.109375" customWidth="1" collapsed="1"/>
-    <col min="6" max="7" width="24.6640625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="49.44140625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="24.6640625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="35.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="14.5546875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="13.109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="15.109375" collapsed="true"/>
+    <col min="6" max="7" customWidth="true" width="24.6640625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="49.44140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="14" customFormat="1" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="26.4" r="1" s="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>24</v>
       </c>
@@ -814,7 +815,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="14" customFormat="1" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="58.2" r="2" s="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="17" t="s">
         <v>39</v>
       </c>
@@ -851,7 +852,7 @@
       <c r="L2" s="12"/>
       <c r="M2" s="12"/>
     </row>
-    <row r="3" spans="1:13" s="14" customFormat="1" ht="61.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="61.2" r="3" s="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="17" t="s">
         <v>39</v>
       </c>
@@ -890,16 +891,16 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF"/>
-    <hyperlink ref="A3" r:id="rId2" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF"/>
+    <hyperlink display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" r:id="rId1" ref="A2"/>
+    <hyperlink display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" r:id="rId2" ref="A3"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId3" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
@@ -908,17 +909,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.33203125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="37.33203125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="13.44140625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.33203125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.6640625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="32.44140625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="30" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="36" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="29.33203125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="37.33203125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="13.44140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="11.33203125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.6640625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="32.44140625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="30.0" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="36.0" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="15" r="1" s="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>24</v>
       </c>
@@ -959,7 +960,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="12" customFormat="1" ht="68.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="68.400000000000006" r="2" s="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
         <v>39</v>
       </c>
@@ -996,8 +997,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF"/>
+    <hyperlink display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite GeneralTaxRateMonth4LDOD1BRNTOTK50percentRL201718.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite GeneralTaxRateMonth4LDOD1BRNTOTK50percentRL201718.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="42">
   <si>
     <t>TC</t>
   </si>

--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite GeneralTaxRateMonth4LDOD1BRNTOTK50percentRL201718.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite GeneralTaxRateMonth4LDOD1BRNTOTK50percentRL201718.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="42">
   <si>
     <t>TC</t>
   </si>
